--- a/script_master_data/ficherosExcelOrigen/DED-NAUF_Adopcion IA_v1a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-NAUF_Adopcion IA_v1a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34964C9-605D-4C1B-BD3D-7821EC57D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E1151-F1CE-4EAE-BA76-F6222FD2D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="110">
   <si>
     <t>GISS-DED - Adopción IA: &lt;Proyecto NAUF&gt;</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>Analisis Desa APIs</t>
   </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +445,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,7 +539,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2801,19 +2802,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,13 +2826,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2887,19 +2888,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2911,19 +2912,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2973,19 +2974,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2997,19 +2998,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3059,19 +3060,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3089,10 +3090,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3221,19 +3222,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3251,10 +3252,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3368,19 +3369,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3398,10 +3399,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3787,19 +3788,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3811,13 +3812,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3873,19 +3874,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3897,16 +3898,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3959,19 +3960,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3983,19 +3984,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4045,19 +4046,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4207,19 +4208,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4354,19 +4355,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6001,19 +6002,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6025,13 +6026,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6087,19 +6088,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6120,10 +6121,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6173,19 +6174,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6206,10 +6207,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6259,19 +6260,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6283,16 +6284,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6421,19 +6422,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6451,10 +6452,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6568,19 +6569,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6592,16 +6593,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6987,19 +6988,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7011,13 +7012,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7073,19 +7074,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7159,19 +7160,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7245,19 +7246,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7269,19 +7270,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7407,19 +7408,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7431,19 +7432,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7554,19 +7555,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7578,19 +7579,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7973,19 +7974,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7997,13 +7998,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -8059,19 +8060,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8083,19 +8084,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8145,19 +8146,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8169,19 +8170,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8231,19 +8232,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8255,19 +8256,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8392,19 +8393,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8416,19 +8417,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.49019607843137253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49019607843137253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8811,19 +8812,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8835,13 +8836,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -8897,19 +8898,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8921,16 +8922,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -8983,19 +8984,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9007,16 +9008,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -9069,19 +9070,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9102,10 +9103,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9231,19 +9232,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9264,10 +9265,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9378,19 +9379,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9411,10 +9412,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9797,19 +9798,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9821,13 +9822,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -9883,19 +9884,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9907,16 +9908,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -9969,19 +9970,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9993,16 +9994,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10055,19 +10056,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10088,10 +10089,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -10217,19 +10218,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10250,10 +10251,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -10364,19 +10365,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10397,10 +10398,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -10783,19 +10784,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10807,13 +10808,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -10869,19 +10870,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10893,16 +10894,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10955,19 +10956,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10979,10 +10980,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11041,19 +11042,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11071,13 +11072,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -11203,19 +11204,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11233,13 +11234,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -11350,19 +11351,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Sprint 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 21</c:v>
+                  <c:v>Srpint 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Srpint 22</c:v>
+                  <c:v>Sprint 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 23</c:v>
+                  <c:v>Sprint 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sprint 24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11380,13 +11381,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -18393,16 +18394,16 @@
   <dimension ref="B2:AS164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.54296875" style="119" customWidth="1"/>
@@ -18477,7 +18478,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:45" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -18607,11 +18608,11 @@
       <c r="AR5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -18731,7 +18732,7 @@
         <f>IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N")</f>
         <v>S</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18843,17 +18844,23 @@
         <f t="shared" ref="AR7:AR13" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
         <v>S</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>109</v>
+      </c>
       <c r="F8" s="112" t="s">
         <v>26</v>
       </c>
@@ -18901,11 +18908,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -19005,11 +19012,11 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -19067,11 +19074,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -19177,11 +19184,11 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:45" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19296,7 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -26812,11 +26819,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AR164" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AR164">
-      <sortCondition ref="B5:B164"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="G16 H11:I100 M11:N100 R11:S100 W11:X100 AB11:AC100 AG11:AH100 AL11:AM100">
     <cfRule type="expression" dxfId="84" priority="179">
       <formula>AND(F11="S",G11="")</formula>
@@ -27669,7 +27671,7 @@
       </c>
       <c r="D4" s="23">
         <f>COUNTA(AdopcionIA!D6:D494)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -28427,53 +28429,53 @@
       </c>
     </row>
     <row r="49" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="18" cm="1">
+      <c r="C49" s="18" t="str" cm="1">
         <f t="array" ref="C49:C53">_xlfn.UNIQUE(AdopcionIA!$C$8:$C$494)</f>
-        <v>0</v>
+        <v>Sprint 21</v>
       </c>
       <c r="D49" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AN$8:AN$494)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!K$8:K$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!P$8:P$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!U$8:U$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Z$8:Z$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AE$8:AE$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AJ$8:AJ$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AO$8:AO$494)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F49" s="64">
         <f t="shared" ref="F49:F56" si="4">IFERROR((D49-E49)/D49,0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G49" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!G$8:G$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!L$8:L$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Q$8:Q$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!V$8:V$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AA$8:AA$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AF$8:AF$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H49" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!G$8:G$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!L$8:L$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Q$8:Q$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!V$8:V$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AA$8:AA$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AF$8:AF$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!H$8:H$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!M$8:M$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!R$8:R$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!W$8:W$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AB$8:AB$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AG$8:AG$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J49" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!H$8:H$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!M$8:M$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!R$8:R$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!W$8:W$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AB$8:AB$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AG$8:AG$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AL$8:AL$494,"S")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!J$8:J$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!K$8:K$494)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M49" s="64">
         <f t="shared" ref="M49:M56" si="5">IFERROR((K49-L49)/K49,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N49" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!G$8:G$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!G$8:G$494,"N")</f>
@@ -28485,19 +28487,19 @@
       </c>
       <c r="Q49" s="48">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!H$8:H$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="105">
         <f>(IFERROR(AVERAGEIFS(AdopcionIA!I$8:I$494,AdopcionIA!$C$8:$C$494,Reporte!$C49),0)/10)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S49" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!O$8:O$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!P$8:P$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="65">
         <f t="shared" ref="U49:U56" si="6">IFERROR((S49-T49)/S49,0)</f>
@@ -28505,7 +28507,7 @@
       </c>
       <c r="V49" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!L$8:L$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!L$8:L$494,"N")</f>
@@ -28517,11 +28519,11 @@
       </c>
       <c r="Y49" s="58">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!M$8:M$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="106">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!N$8:N$494,AdopcionIA!$C$8:$C$494,Reporte!$C49),0)/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA49" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!T$8:T$494)</f>
@@ -28537,15 +28539,15 @@
       </c>
       <c r="AD49" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Q$8:Q$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!Q$8:Q$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!R$8:R$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" s="60">
         <f xml:space="preserve"> COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!R$8:R$494,"S")</f>
@@ -28569,15 +28571,15 @@
       </c>
       <c r="AL49" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!V$8:V$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!V$8:V$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!W$8:W$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="68">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!W$8:W$494,"S")</f>
@@ -28601,15 +28603,15 @@
       </c>
       <c r="AT49" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AA$8:AA$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AA$8:AA$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV49" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AB$8:AB$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="76">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AB$8:AB$494,"S")</f>
@@ -28633,15 +28635,15 @@
       </c>
       <c r="BB49" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AF$8:AF$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AF$8:AF$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD49" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AG$8:AG$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49" s="78">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AG$8:AG$494,"S")</f>
@@ -28665,15 +28667,15 @@
       </c>
       <c r="BJ49" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK49" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL49" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM49" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C49,AdopcionIA!AL$8:AL$494,"S")</f>
@@ -28686,51 +28688,51 @@
     </row>
     <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="18" t="str">
-        <v>Sprint 21</v>
+        <v>Srpint 22</v>
       </c>
       <c r="D50" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AN$8:AN$494)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!K$8:K$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!P$8:P$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!U$8:U$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Z$8:Z$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AE$8:AE$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AJ$8:AJ$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AO$8:AO$494)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F50" s="64">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G50" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!G$8:G$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!L$8:L$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Q$8:Q$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!V$8:V$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AA$8:AA$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AF$8:AF$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!G$8:G$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!L$8:L$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Q$8:Q$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!V$8:V$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AA$8:AA$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AF$8:AF$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!H$8:H$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!M$8:M$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!R$8:R$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!W$8:W$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AB$8:AB$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AG$8:AG$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!H$8:H$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!M$8:M$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!R$8:R$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!W$8:W$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AB$8:AB$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AG$8:AG$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AL$8:AL$494,"S")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!J$8:J$494)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!K$8:K$494)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M50" s="64">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N50" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!G$8:G$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!G$8:G$494,"N")</f>
@@ -28742,19 +28744,19 @@
       </c>
       <c r="Q50" s="48">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!H$8:H$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="105">
         <f>(IFERROR(AVERAGEIFS(AdopcionIA!I$8:I$494,AdopcionIA!$C$8:$C$494,Reporte!$C50),0)/10)</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="S50" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!O$8:O$494)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!P$8:P$494)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="65">
         <f t="shared" si="6"/>
@@ -28762,7 +28764,7 @@
       </c>
       <c r="V50" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!L$8:L$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!L$8:L$494,"N")</f>
@@ -28774,11 +28776,11 @@
       </c>
       <c r="Y50" s="58">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!M$8:M$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="106">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!N$8:N$494,AdopcionIA!$C$8:$C$494,Reporte!$C50),0)/10</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!T$8:T$494)</f>
@@ -28794,15 +28796,15 @@
       </c>
       <c r="AD50" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Q$8:Q$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!Q$8:Q$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!R$8:R$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="60">
         <f xml:space="preserve"> COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!R$8:R$494,"S")</f>
@@ -28826,15 +28828,15 @@
       </c>
       <c r="AL50" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!V$8:V$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!V$8:V$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!W$8:W$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="68">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!W$8:W$494,"S")</f>
@@ -28858,15 +28860,15 @@
       </c>
       <c r="AT50" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AA$8:AA$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AA$8:AA$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AB$8:AB$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="76">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AB$8:AB$494,"S")</f>
@@ -28890,15 +28892,15 @@
       </c>
       <c r="BB50" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AF$8:AF$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AF$8:AF$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AG$8:AG$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE50" s="78">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AG$8:AG$494,"S")</f>
@@ -28922,15 +28924,15 @@
       </c>
       <c r="BJ50" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK50" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM50" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C50,AdopcionIA!AL$8:AL$494,"S")</f>
@@ -28943,51 +28945,51 @@
     </row>
     <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str">
-        <v>Srpint 22</v>
+        <v>Sprint 23</v>
       </c>
       <c r="D51" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AN$8:AN$494)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!K$8:K$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!P$8:P$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!U$8:U$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Z$8:Z$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AE$8:AE$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AJ$8:AJ$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AO$8:AO$494)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F51" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G51" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!G$8:G$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!L$8:L$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Q$8:Q$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!V$8:V$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AA$8:AA$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AF$8:AF$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H51" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!G$8:G$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!L$8:L$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Q$8:Q$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!V$8:V$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AA$8:AA$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AF$8:AF$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I51" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!H$8:H$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!M$8:M$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!R$8:R$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!W$8:W$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AB$8:AB$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AG$8:AG$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!H$8:H$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!M$8:M$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!R$8:R$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!W$8:W$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AB$8:AB$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AG$8:AG$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AL$8:AL$494,"S")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K51" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!J$8:J$494)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L51" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!K$8:K$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N51" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!G$8:G$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!G$8:G$494,"N")</f>
@@ -28999,27 +29001,27 @@
       </c>
       <c r="Q51" s="48">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!H$8:H$494,"S")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" s="105">
         <f>(IFERROR(AVERAGEIFS(AdopcionIA!I$8:I$494,AdopcionIA!$C$8:$C$494,Reporte!$C51),0)/10)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="S51" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!O$8:O$494)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T51" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!P$8:P$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="65">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V51" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!L$8:L$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!L$8:L$494,"N")</f>
@@ -29031,11 +29033,11 @@
       </c>
       <c r="Y51" s="58">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!M$8:M$494,"S")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="106">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!N$8:N$494,AdopcionIA!$C$8:$C$494,Reporte!$C51),0)/10</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AA51" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!T$8:T$494)</f>
@@ -29051,15 +29053,15 @@
       </c>
       <c r="AD51" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Q$8:Q$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!Q$8:Q$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF51" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!R$8:R$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="60">
         <f xml:space="preserve"> COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!R$8:R$494,"S")</f>
@@ -29083,15 +29085,15 @@
       </c>
       <c r="AL51" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!V$8:V$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!V$8:V$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN51" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!W$8:W$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO51" s="68">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!W$8:W$494,"S")</f>
@@ -29103,23 +29105,23 @@
       </c>
       <c r="AQ51" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AD$8:AD$494)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR51" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AE$8:AE$494)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="64">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT51" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AA$8:AA$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AA$8:AA$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AB$8:AB$494,"N")</f>
@@ -29127,43 +29129,43 @@
       </c>
       <c r="AW51" s="76">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AB$8:AB$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="109">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!AC$8:AC$494,AdopcionIA!$C$8:$C$494,Reporte!$C51),0)/10</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AY51" s="77">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AI$8:AI$494)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ51" s="77">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AJ$8:AJ$494)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BA51" s="64">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BB51" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AF$8:AF$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AF$8:AF$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AG$8:AG$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="78">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AG$8:AG$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF51" s="110">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!AH$8:AH$494,AdopcionIA!$C$8:$C$494,Reporte!$C51),0)/10</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BG51" s="81">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AN$8:AN$494)</f>
@@ -29179,15 +29181,15 @@
       </c>
       <c r="BJ51" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AK$8:AK$494,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL51" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM51" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C51,AdopcionIA!AL$8:AL$494,"S")</f>
@@ -29200,19 +29202,19 @@
     </row>
     <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
-        <v>Sprint 23</v>
+        <v>Sprint 24</v>
       </c>
       <c r="D52" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AN$8:AN$494)</f>
-        <v>8</v>
+        <v>12.75</v>
       </c>
       <c r="E52" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!K$8:K$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!P$8:P$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!U$8:U$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Z$8:Z$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AE$8:AE$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AJ$8:AJ$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AO$8:AO$494)</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F52" s="64">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="G52" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!G$8:G$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!L$8:L$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Q$8:Q$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!V$8:V$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AA$8:AA$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AF$8:AF$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AK$8:AK$494,"")</f>
@@ -29220,23 +29222,23 @@
       </c>
       <c r="H52" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!G$8:G$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!L$8:L$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Q$8:Q$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!V$8:V$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AA$8:AA$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AF$8:AF$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I52" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!H$8:H$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!M$8:M$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!R$8:R$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!W$8:W$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AB$8:AB$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AG$8:AG$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J52" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!H$8:H$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!M$8:M$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!R$8:R$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!W$8:W$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AB$8:AB$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AG$8:AG$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AL$8:AL$494,"S")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K52" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!J$8:J$494)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="L52" s="21">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!K$8:K$494)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M52" s="64">
         <f t="shared" si="5"/>
@@ -29256,23 +29258,23 @@
       </c>
       <c r="Q52" s="48">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!H$8:H$494,"S")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52" s="105">
         <f>(IFERROR(AVERAGEIFS(AdopcionIA!I$8:I$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10)</f>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="S52" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!O$8:O$494)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T52" s="54">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!P$8:P$494)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="65">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="V52" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!L$8:L$494,"")</f>
@@ -29280,31 +29282,31 @@
       </c>
       <c r="W52" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!L$8:L$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="54">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!M$8:M$494,"N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="58">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!M$8:M$494,"S")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="106">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!N$8:N$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10</f>
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!T$8:T$494)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB52" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!U$8:U$494)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC52" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD52" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Q$8:Q$494,"")</f>
@@ -29312,31 +29314,31 @@
       </c>
       <c r="AE52" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Q$8:Q$494,"N")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!R$8:R$494,"N")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="60">
         <f xml:space="preserve"> COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!R$8:R$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52" s="107">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!S$8:S$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AI52" s="63">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Y$8:Y$494)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ52" s="63">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!Z$8:Z$494)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="64">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL52" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!V$8:V$494,"")</f>
@@ -29344,27 +29346,27 @@
       </c>
       <c r="AM52" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!V$8:V$494,"N")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!W$8:W$494,"N")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="68">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!W$8:W$494,"S")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52" s="108">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!X$8:X$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AD$8:AD$494)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR52" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AE$8:AE$494)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS52" s="64">
         <f t="shared" si="9"/>
@@ -29376,7 +29378,7 @@
       </c>
       <c r="AU52" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AA$8:AA$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AB$8:AB$494,"N")</f>
@@ -29388,19 +29390,19 @@
       </c>
       <c r="AX52" s="109">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!AC$8:AC$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AY52" s="77">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AI$8:AI$494)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="77">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AJ$8:AJ$494)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="64">
         <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AF$8:AF$494,"")</f>
@@ -29416,11 +29418,11 @@
       </c>
       <c r="BE52" s="78">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AG$8:AG$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52" s="110">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!AH$8:AH$494,AdopcionIA!$C$8:$C$494,Reporte!$C52),0)/10</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BG52" s="81">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AN$8:AN$494)</f>
@@ -29440,11 +29442,11 @@
       </c>
       <c r="BK52" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL52" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM52" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C52,AdopcionIA!AL$8:AL$494,"S")</f>
@@ -29456,20 +29458,20 @@
       </c>
     </row>
     <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C53" s="18" t="str">
-        <v>Sprint 24</v>
+      <c r="C53" s="18">
+        <v>0</v>
       </c>
       <c r="D53" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AN$8:AN$494)</f>
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="E53" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!K$8:K$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!P$8:P$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!U$8:U$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Z$8:Z$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AE$8:AE$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AJ$8:AJ$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AO$8:AO$494)</f>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="F53" s="64">
         <f t="shared" si="4"/>
-        <v>0.49019607843137253</v>
+        <v>0</v>
       </c>
       <c r="G53" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!G$8:G$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!L$8:L$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Q$8:Q$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!V$8:V$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AA$8:AA$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AF$8:AF$494,"") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AK$8:AK$494,"")</f>
@@ -29477,27 +29479,27 @@
       </c>
       <c r="H53" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!G$8:G$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!L$8:L$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Q$8:Q$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!V$8:V$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AA$8:AA$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AF$8:AF$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!H$8:H$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!M$8:M$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!R$8:R$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!W$8:W$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AB$8:AB$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AG$8:AG$494,"N") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" s="51">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!H$8:H$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!M$8:M$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!R$8:R$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!W$8:W$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AB$8:AB$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AG$8:AG$494,"S") + COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AL$8:AL$494,"S")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53" s="47">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!J$8:J$494)</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L53" s="47">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!K$8:K$494)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M53" s="67">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N53" s="21">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!G$8:G$494,"")</f>
@@ -29513,11 +29515,11 @@
       </c>
       <c r="Q53" s="48">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!H$8:H$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="105">
         <f>(IFERROR(AVERAGEIFS(AdopcionIA!I$8:I$494,AdopcionIA!$C$8:$C$494,Reporte!$C53),0)/10)</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="S53" s="55">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!O$8:O$494)</f>
@@ -29537,11 +29539,11 @@
       </c>
       <c r="W53" s="55">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!L$8:L$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="55">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!M$8:M$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="58">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!M$8:M$494,"S")</f>
@@ -29553,15 +29555,15 @@
       </c>
       <c r="AA53" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!T$8:T$494)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="59">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!U$8:U$494)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="64">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="59">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Q$8:Q$494,"")</f>
@@ -29577,23 +29579,23 @@
       </c>
       <c r="AG53" s="60">
         <f xml:space="preserve"> COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!R$8:R$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="107">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!S$8:S$494,AdopcionIA!$C$8:$C$494,Reporte!$C53),0)/10</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="63">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Y$8:Y$494)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="63">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!Z$8:Z$494)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="64">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="63">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!V$8:V$494,"")</f>
@@ -29609,23 +29611,23 @@
       </c>
       <c r="AO53" s="68">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!W$8:W$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="108">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!X$8:X$494,AdopcionIA!$C$8:$C$494,Reporte!$C53),0)/10</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AD$8:AD$494)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="71">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AE$8:AE$494)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="64">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="71">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AA$8:AA$494,"")</f>
@@ -29641,11 +29643,11 @@
       </c>
       <c r="AW53" s="76">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AB$8:AB$494,"S")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="109">
         <f>IFERROR(AVERAGEIFS(AdopcionIA!AC$8:AC$494,AdopcionIA!$C$8:$C$494,Reporte!$C53),0)/10</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="77">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AI$8:AI$494)</f>
@@ -29665,11 +29667,11 @@
       </c>
       <c r="BC53" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AF$8:AF$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="77">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AG$8:AG$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="78">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AG$8:AG$494,"S")</f>
@@ -29697,11 +29699,11 @@
       </c>
       <c r="BK53" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AK$8:AK$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AL$8:AL$494,"N")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM53" s="81">
         <f>COUNTIFS(AdopcionIA!$C$8:$C$494,Reporte!$C53,AdopcionIA!AL$8:AL$494,"S")</f>
@@ -30975,29 +30977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -31198,25 +31177,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E6DC64-1FC7-4277-BA78-A590B013CF93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31233,4 +31217,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>